--- a/inputs/temp_daas_queue.xlsx
+++ b/inputs/temp_daas_queue.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://quintiles-my.sharepoint.com/personal/saptha_ghirikalki_iqvia_com/Documents/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mastekgroup-my.sharepoint.com/personal/sapth1504421_mastek_com/Documents/Desktop/devops_projects/Weekly_report_automation/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB5729CF-DB06-45CF-BC52-A979DD96A2F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{BB5729CF-DB06-45CF-BC52-A979DD96A2F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A063423A-1E86-4B66-97D3-10221F59AE77}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{628842E8-3C38-4DF6-94AF-CE48A93C5452}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$159</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -262,6 +265,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -278,15 +290,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -623,10 +626,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C08BB29-5F9C-4F43-8A5B-865227F65150}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:E159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="D115" sqref="D115"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E131" sqref="E38:E131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -639,24 +643,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="5">
+    <row r="2" spans="1:5" hidden="1">
+      <c r="A2" s="8">
         <v>45697</v>
       </c>
       <c r="B2" s="1">
@@ -672,8 +676,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="6"/>
+    <row r="3" spans="1:5" hidden="1">
+      <c r="A3" s="9"/>
       <c r="B3" s="1">
         <v>9854519</v>
       </c>
@@ -687,8 +691,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="6"/>
+    <row r="4" spans="1:5" hidden="1">
+      <c r="A4" s="9"/>
       <c r="B4" s="1">
         <v>9854598</v>
       </c>
@@ -702,8 +706,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="6"/>
+    <row r="5" spans="1:5" hidden="1">
+      <c r="A5" s="9"/>
       <c r="B5" s="1">
         <v>9854915</v>
       </c>
@@ -717,8 +721,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="6"/>
+    <row r="6" spans="1:5" hidden="1">
+      <c r="A6" s="9"/>
       <c r="B6" s="1">
         <v>9854930</v>
       </c>
@@ -732,8 +736,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="6"/>
+    <row r="7" spans="1:5" hidden="1">
+      <c r="A7" s="9"/>
       <c r="B7" s="1">
         <v>9854997</v>
       </c>
@@ -747,8 +751,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="6"/>
+    <row r="8" spans="1:5" hidden="1">
+      <c r="A8" s="9"/>
       <c r="B8" s="1">
         <v>9855000</v>
       </c>
@@ -762,8 +766,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="6"/>
+    <row r="9" spans="1:5" hidden="1">
+      <c r="A9" s="9"/>
       <c r="B9" s="1">
         <v>9855172</v>
       </c>
@@ -777,8 +781,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="6"/>
+    <row r="10" spans="1:5" hidden="1">
+      <c r="A10" s="9"/>
       <c r="B10" s="1">
         <v>9855362</v>
       </c>
@@ -792,8 +796,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="6"/>
+    <row r="11" spans="1:5" hidden="1">
+      <c r="A11" s="9"/>
       <c r="B11" s="1">
         <v>9855181</v>
       </c>
@@ -807,8 +811,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="6"/>
+    <row r="12" spans="1:5" hidden="1">
+      <c r="A12" s="9"/>
       <c r="B12" s="1">
         <v>9855588</v>
       </c>
@@ -822,8 +826,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="6"/>
+    <row r="13" spans="1:5" hidden="1">
+      <c r="A13" s="9"/>
       <c r="B13" s="1">
         <v>9855743</v>
       </c>
@@ -837,8 +841,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="6"/>
+    <row r="14" spans="1:5" hidden="1">
+      <c r="A14" s="9"/>
       <c r="B14" s="1">
         <v>9855833</v>
       </c>
@@ -852,8 +856,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="6"/>
+    <row r="15" spans="1:5" hidden="1">
+      <c r="A15" s="9"/>
       <c r="B15" s="1">
         <v>9855830</v>
       </c>
@@ -867,8 +871,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="6"/>
+    <row r="16" spans="1:5" hidden="1">
+      <c r="A16" s="9"/>
       <c r="B16" s="1">
         <v>9855904</v>
       </c>
@@ -882,8 +886,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="6"/>
+    <row r="17" spans="1:5" hidden="1">
+      <c r="A17" s="9"/>
       <c r="B17" s="1">
         <v>9856113</v>
       </c>
@@ -897,8 +901,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="6"/>
+    <row r="18" spans="1:5" hidden="1">
+      <c r="A18" s="9"/>
       <c r="B18" s="1">
         <v>9855312</v>
       </c>
@@ -912,8 +916,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="6"/>
+    <row r="19" spans="1:5" hidden="1">
+      <c r="A19" s="9"/>
       <c r="B19" s="1">
         <v>9856004</v>
       </c>
@@ -927,8 +931,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="6"/>
+    <row r="20" spans="1:5" hidden="1">
+      <c r="A20" s="9"/>
       <c r="B20" s="1">
         <v>9854781</v>
       </c>
@@ -942,8 +946,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="6"/>
+    <row r="21" spans="1:5" hidden="1">
+      <c r="A21" s="9"/>
       <c r="B21" s="1">
         <v>9856529</v>
       </c>
@@ -957,8 +961,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="6"/>
+    <row r="22" spans="1:5" hidden="1">
+      <c r="A22" s="9"/>
       <c r="B22" s="1">
         <v>9850771</v>
       </c>
@@ -972,8 +976,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="6"/>
+    <row r="23" spans="1:5" hidden="1">
+      <c r="A23" s="9"/>
       <c r="B23" s="1">
         <v>9853835</v>
       </c>
@@ -987,8 +991,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="6"/>
+    <row r="24" spans="1:5" hidden="1">
+      <c r="A24" s="9"/>
       <c r="B24" s="1">
         <v>9853477</v>
       </c>
@@ -1002,8 +1006,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="6"/>
+    <row r="25" spans="1:5" hidden="1">
+      <c r="A25" s="9"/>
       <c r="B25" s="1">
         <v>9853397</v>
       </c>
@@ -1017,8 +1021,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="6"/>
+    <row r="26" spans="1:5" hidden="1">
+      <c r="A26" s="9"/>
       <c r="B26" s="1">
         <v>9853921</v>
       </c>
@@ -1032,8 +1036,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="6"/>
+    <row r="27" spans="1:5" hidden="1">
+      <c r="A27" s="9"/>
       <c r="B27" s="1">
         <v>9854224</v>
       </c>
@@ -1047,8 +1051,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="6"/>
+    <row r="28" spans="1:5" hidden="1">
+      <c r="A28" s="9"/>
       <c r="B28" s="1">
         <v>9853400</v>
       </c>
@@ -1062,8 +1066,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="6"/>
+    <row r="29" spans="1:5" hidden="1">
+      <c r="A29" s="9"/>
       <c r="B29" s="1">
         <v>9854229</v>
       </c>
@@ -1077,8 +1081,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="6"/>
+    <row r="30" spans="1:5" hidden="1">
+      <c r="A30" s="9"/>
       <c r="B30" s="1">
         <v>9854443</v>
       </c>
@@ -1092,8 +1096,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="6"/>
+    <row r="31" spans="1:5" hidden="1">
+      <c r="A31" s="9"/>
       <c r="B31" s="1">
         <v>9854422</v>
       </c>
@@ -1107,8 +1111,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="6"/>
+    <row r="32" spans="1:5" hidden="1">
+      <c r="A32" s="9"/>
       <c r="B32" s="1">
         <v>9854281</v>
       </c>
@@ -1122,8 +1126,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="6"/>
+    <row r="33" spans="1:5" hidden="1">
+      <c r="A33" s="9"/>
       <c r="B33" s="1">
         <v>9852934</v>
       </c>
@@ -1137,8 +1141,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="6"/>
+    <row r="34" spans="1:5" hidden="1">
+      <c r="A34" s="9"/>
       <c r="B34" s="1">
         <v>9860014</v>
       </c>
@@ -1152,8 +1156,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="6"/>
+    <row r="35" spans="1:5" hidden="1">
+      <c r="A35" s="9"/>
       <c r="B35" s="1">
         <v>9860143</v>
       </c>
@@ -1167,8 +1171,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="7"/>
+    <row r="36" spans="1:5" hidden="1">
+      <c r="A36" s="10"/>
       <c r="B36" s="1">
         <v>9860142</v>
       </c>
@@ -1182,8 +1186,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="8">
+    <row r="37" spans="1:5" hidden="1">
+      <c r="A37" s="11">
         <v>45725</v>
       </c>
       <c r="B37" s="1">
@@ -1200,7 +1204,7 @@
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="9"/>
+      <c r="A38" s="12"/>
       <c r="B38" s="1">
         <v>9859829</v>
       </c>
@@ -1214,8 +1218,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="9"/>
+    <row r="39" spans="1:5" hidden="1">
+      <c r="A39" s="12"/>
       <c r="B39" s="1">
         <v>9860764</v>
       </c>
@@ -1229,8 +1233,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="9"/>
+    <row r="40" spans="1:5" hidden="1">
+      <c r="A40" s="12"/>
       <c r="B40" s="1">
         <v>9860894</v>
       </c>
@@ -1244,8 +1248,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="9"/>
+    <row r="41" spans="1:5" hidden="1">
+      <c r="A41" s="12"/>
       <c r="B41" s="1">
         <v>9861987</v>
       </c>
@@ -1259,8 +1263,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="9"/>
+    <row r="42" spans="1:5" hidden="1">
+      <c r="A42" s="12"/>
       <c r="B42" s="1">
         <v>9862008</v>
       </c>
@@ -1274,8 +1278,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="9"/>
+    <row r="43" spans="1:5" hidden="1">
+      <c r="A43" s="12"/>
       <c r="B43" s="1">
         <v>9862105</v>
       </c>
@@ -1289,8 +1293,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="9"/>
+    <row r="44" spans="1:5" hidden="1">
+      <c r="A44" s="12"/>
       <c r="B44" s="1">
         <v>9862463</v>
       </c>
@@ -1304,8 +1308,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="9"/>
+    <row r="45" spans="1:5" hidden="1">
+      <c r="A45" s="12"/>
       <c r="B45" s="1">
         <v>9863313</v>
       </c>
@@ -1319,8 +1323,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="9"/>
+    <row r="46" spans="1:5" hidden="1">
+      <c r="A46" s="12"/>
       <c r="B46" s="1">
         <v>9860974</v>
       </c>
@@ -1334,8 +1338,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="9"/>
+    <row r="47" spans="1:5" hidden="1">
+      <c r="A47" s="12"/>
       <c r="B47" s="1">
         <v>9860982</v>
       </c>
@@ -1349,8 +1353,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="9"/>
+    <row r="48" spans="1:5" hidden="1">
+      <c r="A48" s="12"/>
       <c r="B48" s="1">
         <v>9799385</v>
       </c>
@@ -1364,8 +1368,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="9"/>
+    <row r="49" spans="1:5" hidden="1">
+      <c r="A49" s="12"/>
       <c r="B49" s="1">
         <v>9862052</v>
       </c>
@@ -1379,8 +1383,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="9"/>
+    <row r="50" spans="1:5" hidden="1">
+      <c r="A50" s="12"/>
       <c r="B50" s="1">
         <v>9862076</v>
       </c>
@@ -1394,8 +1398,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="9"/>
+    <row r="51" spans="1:5" hidden="1">
+      <c r="A51" s="12"/>
       <c r="B51" s="1">
         <v>9862169</v>
       </c>
@@ -1409,8 +1413,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="9"/>
+    <row r="52" spans="1:5" hidden="1">
+      <c r="A52" s="12"/>
       <c r="B52" s="1">
         <v>9862247</v>
       </c>
@@ -1424,8 +1428,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="9"/>
+    <row r="53" spans="1:5" hidden="1">
+      <c r="A53" s="12"/>
       <c r="B53" s="1">
         <v>9862330</v>
       </c>
@@ -1439,8 +1443,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="9"/>
+    <row r="54" spans="1:5" hidden="1">
+      <c r="A54" s="12"/>
       <c r="B54" s="1">
         <v>9862509</v>
       </c>
@@ -1454,8 +1458,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="9"/>
+    <row r="55" spans="1:5" hidden="1">
+      <c r="A55" s="12"/>
       <c r="B55" s="1">
         <v>9862544</v>
       </c>
@@ -1469,8 +1473,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="9"/>
+    <row r="56" spans="1:5" hidden="1">
+      <c r="A56" s="12"/>
       <c r="B56" s="1">
         <v>9863071</v>
       </c>
@@ -1484,8 +1488,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="9"/>
+    <row r="57" spans="1:5" hidden="1">
+      <c r="A57" s="12"/>
       <c r="B57" s="1">
         <v>9863249</v>
       </c>
@@ -1499,8 +1503,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="9"/>
+    <row r="58" spans="1:5" hidden="1">
+      <c r="A58" s="12"/>
       <c r="B58" s="1">
         <v>9863351</v>
       </c>
@@ -1514,8 +1518,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="9"/>
+    <row r="59" spans="1:5" hidden="1">
+      <c r="A59" s="12"/>
       <c r="B59" s="1">
         <v>9862629</v>
       </c>
@@ -1529,8 +1533,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="9"/>
+    <row r="60" spans="1:5" hidden="1">
+      <c r="A60" s="12"/>
       <c r="B60" s="1">
         <v>9862671</v>
       </c>
@@ -1544,8 +1548,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="9"/>
+    <row r="61" spans="1:5" hidden="1">
+      <c r="A61" s="12"/>
       <c r="B61" s="1">
         <v>9862695</v>
       </c>
@@ -1559,8 +1563,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="9"/>
+    <row r="62" spans="1:5" hidden="1">
+      <c r="A62" s="12"/>
       <c r="B62" s="1">
         <v>9862732</v>
       </c>
@@ -1574,8 +1578,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="9"/>
+    <row r="63" spans="1:5" hidden="1">
+      <c r="A63" s="12"/>
       <c r="B63" s="1">
         <v>9862812</v>
       </c>
@@ -1589,8 +1593,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
-      <c r="A64" s="9"/>
+    <row r="64" spans="1:5" hidden="1">
+      <c r="A64" s="12"/>
       <c r="B64" s="1">
         <v>9862964</v>
       </c>
@@ -1604,8 +1608,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
-      <c r="A65" s="9"/>
+    <row r="65" spans="1:5" hidden="1">
+      <c r="A65" s="12"/>
       <c r="B65" s="1">
         <v>9862990</v>
       </c>
@@ -1619,8 +1623,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
-      <c r="A66" s="9"/>
+    <row r="66" spans="1:5" hidden="1">
+      <c r="A66" s="12"/>
       <c r="B66" s="1">
         <v>9863230</v>
       </c>
@@ -1635,7 +1639,7 @@
       </c>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="9"/>
+      <c r="A67" s="12"/>
       <c r="B67" s="1">
         <v>9863830</v>
       </c>
@@ -1649,8 +1653,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
-      <c r="A68" s="9"/>
+    <row r="68" spans="1:5" hidden="1">
+      <c r="A68" s="12"/>
       <c r="B68" s="1">
         <v>9863871</v>
       </c>
@@ -1664,8 +1668,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
-      <c r="A69" s="9"/>
+    <row r="69" spans="1:5" hidden="1">
+      <c r="A69" s="12"/>
       <c r="B69" s="1">
         <v>9864007</v>
       </c>
@@ -1679,8 +1683,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
-      <c r="A70" s="9"/>
+    <row r="70" spans="1:5" hidden="1">
+      <c r="A70" s="12"/>
       <c r="B70" s="1">
         <v>9858616</v>
       </c>
@@ -1694,8 +1698,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
-      <c r="A71" s="9"/>
+    <row r="71" spans="1:5" hidden="1">
+      <c r="A71" s="12"/>
       <c r="B71" s="1">
         <v>9859391</v>
       </c>
@@ -1709,8 +1713,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
-      <c r="A72" s="9"/>
+    <row r="72" spans="1:5" hidden="1">
+      <c r="A72" s="12"/>
       <c r="B72" s="1">
         <v>9859385</v>
       </c>
@@ -1724,8 +1728,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
-      <c r="A73" s="9"/>
+    <row r="73" spans="1:5" hidden="1">
+      <c r="A73" s="12"/>
       <c r="B73" s="1">
         <v>9860159</v>
       </c>
@@ -1739,8 +1743,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
-      <c r="A74" s="9"/>
+    <row r="74" spans="1:5" hidden="1">
+      <c r="A74" s="12"/>
       <c r="B74" s="1">
         <v>9859309</v>
       </c>
@@ -1754,8 +1758,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
-      <c r="A75" s="9"/>
+    <row r="75" spans="1:5" hidden="1">
+      <c r="A75" s="12"/>
       <c r="B75" s="1">
         <v>9860417</v>
       </c>
@@ -1769,8 +1773,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
-      <c r="A76" s="9"/>
+    <row r="76" spans="1:5" hidden="1">
+      <c r="A76" s="12"/>
       <c r="B76" s="1">
         <v>9872647</v>
       </c>
@@ -1784,8 +1788,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
-      <c r="A77" s="9"/>
+    <row r="77" spans="1:5" hidden="1">
+      <c r="A77" s="12"/>
       <c r="B77" s="1">
         <v>9872592</v>
       </c>
@@ -1799,8 +1803,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
-      <c r="A78" s="10"/>
+    <row r="78" spans="1:5" hidden="1">
+      <c r="A78" s="13"/>
       <c r="B78" s="1">
         <v>9873451</v>
       </c>
@@ -1814,8 +1818,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
-      <c r="A79" s="8">
+    <row r="79" spans="1:5" hidden="1">
+      <c r="A79" s="11">
         <v>45756</v>
       </c>
       <c r="B79" s="1">
@@ -1831,8 +1835,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
-      <c r="A80" s="9"/>
+    <row r="80" spans="1:5" hidden="1">
+      <c r="A80" s="12"/>
       <c r="B80" s="1">
         <v>9866621</v>
       </c>
@@ -1846,8 +1850,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
-      <c r="A81" s="9"/>
+    <row r="81" spans="1:5" hidden="1">
+      <c r="A81" s="12"/>
       <c r="B81" s="1">
         <v>9866263</v>
       </c>
@@ -1861,8 +1865,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
-      <c r="A82" s="9"/>
+    <row r="82" spans="1:5" hidden="1">
+      <c r="A82" s="12"/>
       <c r="B82" s="1">
         <v>9863313</v>
       </c>
@@ -1876,8 +1880,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
-      <c r="A83" s="9"/>
+    <row r="83" spans="1:5" hidden="1">
+      <c r="A83" s="12"/>
       <c r="B83" s="1">
         <v>9865823</v>
       </c>
@@ -1891,8 +1895,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
-      <c r="A84" s="9"/>
+    <row r="84" spans="1:5" hidden="1">
+      <c r="A84" s="12"/>
       <c r="B84" s="1">
         <v>9865952</v>
       </c>
@@ -1906,8 +1910,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
-      <c r="A85" s="9"/>
+    <row r="85" spans="1:5" hidden="1">
+      <c r="A85" s="12"/>
       <c r="B85" s="1">
         <v>9866188</v>
       </c>
@@ -1921,8 +1925,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
-      <c r="A86" s="9"/>
+    <row r="86" spans="1:5" hidden="1">
+      <c r="A86" s="12"/>
       <c r="B86" s="1">
         <v>9866094</v>
       </c>
@@ -1936,8 +1940,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
-      <c r="A87" s="9"/>
+    <row r="87" spans="1:5" hidden="1">
+      <c r="A87" s="12"/>
       <c r="B87" s="1">
         <v>9866567</v>
       </c>
@@ -1951,8 +1955,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
-      <c r="A88" s="9"/>
+    <row r="88" spans="1:5" hidden="1">
+      <c r="A88" s="12"/>
       <c r="B88" s="1">
         <v>9867198</v>
       </c>
@@ -1966,8 +1970,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
-      <c r="A89" s="9"/>
+    <row r="89" spans="1:5" hidden="1">
+      <c r="A89" s="12"/>
       <c r="B89" s="1">
         <v>9866895</v>
       </c>
@@ -1981,8 +1985,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
-      <c r="A90" s="9"/>
+    <row r="90" spans="1:5" hidden="1">
+      <c r="A90" s="12"/>
       <c r="B90" s="3">
         <v>9863351</v>
       </c>
@@ -1997,7 +2001,7 @@
       </c>
     </row>
     <row r="91" spans="1:5">
-      <c r="A91" s="9"/>
+      <c r="A91" s="12"/>
       <c r="B91" s="3">
         <v>9867251</v>
       </c>
@@ -2011,8 +2015,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
-      <c r="A92" s="9"/>
+    <row r="92" spans="1:5" hidden="1">
+      <c r="A92" s="12"/>
       <c r="B92" s="3">
         <v>9867413</v>
       </c>
@@ -2026,8 +2030,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
-      <c r="A93" s="9"/>
+    <row r="93" spans="1:5" hidden="1">
+      <c r="A93" s="12"/>
       <c r="B93" s="3">
         <v>9867529</v>
       </c>
@@ -2041,8 +2045,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
-      <c r="A94" s="9"/>
+    <row r="94" spans="1:5" hidden="1">
+      <c r="A94" s="12"/>
       <c r="B94" s="3">
         <v>9867620</v>
       </c>
@@ -2056,8 +2060,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
-      <c r="A95" s="9"/>
+    <row r="95" spans="1:5" hidden="1">
+      <c r="A95" s="12"/>
       <c r="B95" s="3">
         <v>9867854</v>
       </c>
@@ -2071,8 +2075,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
-      <c r="A96" s="9"/>
+    <row r="96" spans="1:5" hidden="1">
+      <c r="A96" s="12"/>
       <c r="B96" s="3">
         <v>9868378</v>
       </c>
@@ -2086,8 +2090,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
-      <c r="A97" s="9"/>
+    <row r="97" spans="1:5" hidden="1">
+      <c r="A97" s="12"/>
       <c r="B97" s="3">
         <v>9868816</v>
       </c>
@@ -2101,8 +2105,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
-      <c r="A98" s="9"/>
+    <row r="98" spans="1:5" hidden="1">
+      <c r="A98" s="12"/>
       <c r="B98" s="3">
         <v>9869295</v>
       </c>
@@ -2116,8 +2120,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
-      <c r="A99" s="9"/>
+    <row r="99" spans="1:5" hidden="1">
+      <c r="A99" s="12"/>
       <c r="B99" s="3">
         <v>9870159</v>
       </c>
@@ -2132,7 +2136,7 @@
       </c>
     </row>
     <row r="100" spans="1:5">
-      <c r="A100" s="9"/>
+      <c r="A100" s="12"/>
       <c r="B100" s="3">
         <v>9867880</v>
       </c>
@@ -2146,8 +2150,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
-      <c r="A101" s="9"/>
+    <row r="101" spans="1:5" hidden="1">
+      <c r="A101" s="12"/>
       <c r="B101" s="3">
         <v>9867882</v>
       </c>
@@ -2161,8 +2165,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
-      <c r="A102" s="9"/>
+    <row r="102" spans="1:5" hidden="1">
+      <c r="A102" s="12"/>
       <c r="B102" s="3">
         <v>9867626</v>
       </c>
@@ -2176,8 +2180,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
-      <c r="A103" s="9"/>
+    <row r="103" spans="1:5" hidden="1">
+      <c r="A103" s="12"/>
       <c r="B103" s="3">
         <v>9863071</v>
       </c>
@@ -2191,8 +2195,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
-      <c r="A104" s="9"/>
+    <row r="104" spans="1:5" hidden="1">
+      <c r="A104" s="12"/>
       <c r="B104" s="3">
         <v>9868450</v>
       </c>
@@ -2206,8 +2210,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
-      <c r="A105" s="9"/>
+    <row r="105" spans="1:5" hidden="1">
+      <c r="A105" s="12"/>
       <c r="B105" s="3">
         <v>9868709</v>
       </c>
@@ -2221,8 +2225,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
-      <c r="A106" s="9"/>
+    <row r="106" spans="1:5" hidden="1">
+      <c r="A106" s="12"/>
       <c r="B106" s="3">
         <v>9868716</v>
       </c>
@@ -2236,8 +2240,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
-      <c r="A107" s="9"/>
+    <row r="107" spans="1:5" hidden="1">
+      <c r="A107" s="12"/>
       <c r="B107" s="3">
         <v>9868772</v>
       </c>
@@ -2251,8 +2255,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
-      <c r="A108" s="9"/>
+    <row r="108" spans="1:5" hidden="1">
+      <c r="A108" s="12"/>
       <c r="B108" s="3">
         <v>9869076</v>
       </c>
@@ -2266,8 +2270,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
-      <c r="A109" s="9"/>
+    <row r="109" spans="1:5" hidden="1">
+      <c r="A109" s="12"/>
       <c r="B109" s="3">
         <v>9869255</v>
       </c>
@@ -2281,8 +2285,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
-      <c r="A110" s="9"/>
+    <row r="110" spans="1:5" hidden="1">
+      <c r="A110" s="12"/>
       <c r="B110" s="3">
         <v>9869270</v>
       </c>
@@ -2296,8 +2300,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
-      <c r="A111" s="9"/>
+    <row r="111" spans="1:5" hidden="1">
+      <c r="A111" s="12"/>
       <c r="B111" s="3">
         <v>9869351</v>
       </c>
@@ -2311,8 +2315,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
-      <c r="A112" s="9"/>
+    <row r="112" spans="1:5" hidden="1">
+      <c r="A112" s="12"/>
       <c r="B112" s="3">
         <v>9869624</v>
       </c>
@@ -2326,8 +2330,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
-      <c r="A113" s="9"/>
+    <row r="113" spans="1:5" hidden="1">
+      <c r="A113" s="12"/>
       <c r="B113" s="3">
         <v>9869872</v>
       </c>
@@ -2341,8 +2345,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
-      <c r="A114" s="9"/>
+    <row r="114" spans="1:5" hidden="1">
+      <c r="A114" s="12"/>
       <c r="B114" s="3">
         <v>9869895</v>
       </c>
@@ -2356,8 +2360,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
-      <c r="A115" s="9"/>
+    <row r="115" spans="1:5" hidden="1">
+      <c r="A115" s="12"/>
       <c r="B115" s="3">
         <v>9870043</v>
       </c>
@@ -2371,8 +2375,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
-      <c r="A116" s="9"/>
+    <row r="116" spans="1:5" hidden="1">
+      <c r="A116" s="12"/>
       <c r="B116" s="3">
         <v>9870120</v>
       </c>
@@ -2386,8 +2390,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
-      <c r="A117" s="9"/>
+    <row r="117" spans="1:5" hidden="1">
+      <c r="A117" s="12"/>
       <c r="B117" s="3">
         <v>9870159</v>
       </c>
@@ -2401,8 +2405,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
-      <c r="A118" s="9"/>
+    <row r="118" spans="1:5" hidden="1">
+      <c r="A118" s="12"/>
       <c r="B118" s="3">
         <v>9870209</v>
       </c>
@@ -2416,8 +2420,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
-      <c r="A119" s="10"/>
+    <row r="119" spans="1:5" hidden="1">
+      <c r="A119" s="13"/>
       <c r="B119" s="3">
         <v>9870578</v>
       </c>
@@ -2431,8 +2435,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
-      <c r="A120" s="8">
+    <row r="120" spans="1:5" hidden="1">
+      <c r="A120" s="11">
         <v>45786</v>
       </c>
       <c r="B120" s="3">
@@ -2448,8 +2452,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
-      <c r="A121" s="9"/>
+    <row r="121" spans="1:5" hidden="1">
+      <c r="A121" s="12"/>
       <c r="B121" s="3">
         <v>9874364</v>
       </c>
@@ -2463,8 +2467,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
-      <c r="A122" s="9"/>
+    <row r="122" spans="1:5" hidden="1">
+      <c r="A122" s="12"/>
       <c r="B122" s="3">
         <v>9874439</v>
       </c>
@@ -2478,8 +2482,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
-      <c r="A123" s="9"/>
+    <row r="123" spans="1:5" hidden="1">
+      <c r="A123" s="12"/>
       <c r="B123" s="3">
         <v>9874286</v>
       </c>
@@ -2493,8 +2497,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
-      <c r="A124" s="9"/>
+    <row r="124" spans="1:5" hidden="1">
+      <c r="A124" s="12"/>
       <c r="B124" s="3">
         <v>9873657</v>
       </c>
@@ -2508,8 +2512,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
-      <c r="A125" s="9"/>
+    <row r="125" spans="1:5" hidden="1">
+      <c r="A125" s="12"/>
       <c r="B125" s="3">
         <v>9874651</v>
       </c>
@@ -2523,8 +2527,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:5">
-      <c r="A126" s="9"/>
+    <row r="126" spans="1:5" hidden="1">
+      <c r="A126" s="12"/>
       <c r="B126" s="3">
         <v>9874943</v>
       </c>
@@ -2538,8 +2542,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
-      <c r="A127" s="9"/>
+    <row r="127" spans="1:5" hidden="1">
+      <c r="A127" s="12"/>
       <c r="B127" s="3">
         <v>9875015</v>
       </c>
@@ -2553,8 +2557,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
-      <c r="A128" s="9"/>
+    <row r="128" spans="1:5" hidden="1">
+      <c r="A128" s="12"/>
       <c r="B128" s="3">
         <v>9875094</v>
       </c>
@@ -2568,8 +2572,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:5">
-      <c r="A129" s="9"/>
+    <row r="129" spans="1:5" hidden="1">
+      <c r="A129" s="12"/>
       <c r="B129" s="3">
         <v>9875299</v>
       </c>
@@ -2583,8 +2587,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
-      <c r="A130" s="9"/>
+    <row r="130" spans="1:5" hidden="1">
+      <c r="A130" s="12"/>
       <c r="B130" s="3">
         <v>9875307</v>
       </c>
@@ -2599,7 +2603,7 @@
       </c>
     </row>
     <row r="131" spans="1:5">
-      <c r="A131" s="9"/>
+      <c r="A131" s="12"/>
       <c r="B131" s="3">
         <v>9875382</v>
       </c>
@@ -2613,8 +2617,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="132" spans="1:5">
-      <c r="A132" s="9"/>
+    <row r="132" spans="1:5" hidden="1">
+      <c r="A132" s="12"/>
       <c r="B132" s="3">
         <v>9875636</v>
       </c>
@@ -2628,8 +2632,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:5">
-      <c r="A133" s="9"/>
+    <row r="133" spans="1:5" hidden="1">
+      <c r="A133" s="12"/>
       <c r="B133" s="3">
         <v>9875657</v>
       </c>
@@ -2643,8 +2647,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:5">
-      <c r="A134" s="9"/>
+    <row r="134" spans="1:5" hidden="1">
+      <c r="A134" s="12"/>
       <c r="B134" s="3">
         <v>9875678</v>
       </c>
@@ -2658,8 +2662,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:5">
-      <c r="A135" s="9"/>
+    <row r="135" spans="1:5" hidden="1">
+      <c r="A135" s="12"/>
       <c r="B135" s="3">
         <v>9875865</v>
       </c>
@@ -2673,8 +2677,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
-      <c r="A136" s="9"/>
+    <row r="136" spans="1:5" hidden="1">
+      <c r="A136" s="12"/>
       <c r="B136" s="3">
         <v>9875869</v>
       </c>
@@ -2688,8 +2692,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:5">
-      <c r="A137" s="9"/>
+    <row r="137" spans="1:5" hidden="1">
+      <c r="A137" s="12"/>
       <c r="B137" s="3">
         <v>9875690</v>
       </c>
@@ -2703,8 +2707,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:5">
-      <c r="A138" s="9"/>
+    <row r="138" spans="1:5" hidden="1">
+      <c r="A138" s="12"/>
       <c r="B138" s="3">
         <v>9875924</v>
       </c>
@@ -2718,8 +2722,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:5">
-      <c r="A139" s="9"/>
+    <row r="139" spans="1:5" hidden="1">
+      <c r="A139" s="12"/>
       <c r="B139" s="3">
         <v>9863249</v>
       </c>
@@ -2733,8 +2737,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:5">
-      <c r="A140" s="9"/>
+    <row r="140" spans="1:5" hidden="1">
+      <c r="A140" s="12"/>
       <c r="B140" s="3">
         <v>9873543</v>
       </c>
@@ -2748,8 +2752,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="1:5">
-      <c r="A141" s="9"/>
+    <row r="141" spans="1:5" hidden="1">
+      <c r="A141" s="12"/>
       <c r="B141" s="3">
         <v>9873698</v>
       </c>
@@ -2763,8 +2767,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:5">
-      <c r="A142" s="9"/>
+    <row r="142" spans="1:5" hidden="1">
+      <c r="A142" s="12"/>
       <c r="B142" s="3">
         <v>9873266</v>
       </c>
@@ -2778,8 +2782,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="1:5">
-      <c r="A143" s="9"/>
+    <row r="143" spans="1:5" hidden="1">
+      <c r="A143" s="12"/>
       <c r="B143" s="3">
         <v>9872112</v>
       </c>
@@ -2793,8 +2797,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:5">
-      <c r="A144" s="9"/>
+    <row r="144" spans="1:5" hidden="1">
+      <c r="A144" s="12"/>
       <c r="B144" s="3">
         <v>9872252</v>
       </c>
@@ -2808,8 +2812,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:5">
-      <c r="A145" s="9"/>
+    <row r="145" spans="1:5" hidden="1">
+      <c r="A145" s="12"/>
       <c r="B145" s="3">
         <v>9873032</v>
       </c>
@@ -2823,8 +2827,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:5">
-      <c r="A146" s="9"/>
+    <row r="146" spans="1:5" hidden="1">
+      <c r="A146" s="12"/>
       <c r="B146" s="3">
         <v>9872875</v>
       </c>
@@ -2838,8 +2842,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="147" spans="1:5">
-      <c r="A147" s="9"/>
+    <row r="147" spans="1:5" hidden="1">
+      <c r="A147" s="12"/>
       <c r="B147" s="3">
         <v>9872872</v>
       </c>
@@ -2853,8 +2857,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="1:5">
-      <c r="A148" s="9"/>
+    <row r="148" spans="1:5" hidden="1">
+      <c r="A148" s="12"/>
       <c r="B148" s="3">
         <v>9872694</v>
       </c>
@@ -2868,8 +2872,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="149" spans="1:5">
-      <c r="A149" s="9"/>
+    <row r="149" spans="1:5" hidden="1">
+      <c r="A149" s="12"/>
       <c r="B149" s="3">
         <v>9873148</v>
       </c>
@@ -2883,8 +2887,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:5">
-      <c r="A150" s="9"/>
+    <row r="150" spans="1:5" hidden="1">
+      <c r="A150" s="12"/>
       <c r="B150" s="3">
         <v>9873409</v>
       </c>
@@ -2898,8 +2902,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="1:5">
-      <c r="A151" s="9"/>
+    <row r="151" spans="1:5" hidden="1">
+      <c r="A151" s="12"/>
       <c r="B151" s="3">
         <v>9873383</v>
       </c>
@@ -2913,8 +2917,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="152" spans="1:5">
-      <c r="A152" s="9"/>
+    <row r="152" spans="1:5" hidden="1">
+      <c r="A152" s="12"/>
       <c r="B152" s="3">
         <v>9873840</v>
       </c>
@@ -2928,8 +2932,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="153" spans="1:5">
-      <c r="A153" s="9"/>
+    <row r="153" spans="1:5" hidden="1">
+      <c r="A153" s="12"/>
       <c r="B153" s="3">
         <v>9873817</v>
       </c>
@@ -2943,8 +2947,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:5">
-      <c r="A154" s="9"/>
+    <row r="154" spans="1:5" hidden="1">
+      <c r="A154" s="12"/>
       <c r="B154" s="3">
         <v>9873717</v>
       </c>
@@ -2958,8 +2962,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="155" spans="1:5">
-      <c r="A155" s="9"/>
+    <row r="155" spans="1:5" hidden="1">
+      <c r="A155" s="12"/>
       <c r="B155" s="3">
         <v>9873524</v>
       </c>
@@ -2973,8 +2977,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="156" spans="1:5">
-      <c r="A156" s="9"/>
+    <row r="156" spans="1:5" hidden="1">
+      <c r="A156" s="12"/>
       <c r="B156" s="3">
         <v>9873585</v>
       </c>
@@ -2988,8 +2992,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="157" spans="1:5">
-      <c r="A157" s="9"/>
+    <row r="157" spans="1:5" hidden="1">
+      <c r="A157" s="12"/>
       <c r="B157" s="3">
         <v>9873674</v>
       </c>
@@ -3003,8 +3007,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="158" spans="1:5">
-      <c r="A158" s="9"/>
+    <row r="158" spans="1:5" hidden="1">
+      <c r="A158" s="12"/>
       <c r="B158" s="3">
         <v>9873706</v>
       </c>
@@ -3018,8 +3022,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="1:5">
-      <c r="A159" s="10"/>
+    <row r="159" spans="1:5" hidden="1">
+      <c r="A159" s="13"/>
       <c r="B159" s="3">
         <v>9873921</v>
       </c>
@@ -3034,6 +3038,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E159" xr:uid="{8C08BB29-5F9C-4F43-8A5B-865227F65150}">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="Pending Problem Solution"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="4">
     <mergeCell ref="A2:A36"/>
     <mergeCell ref="A37:A78"/>
